--- a/data/134/DEUSTATIS/old/Persons employed in wholesale trade.xlsx
+++ b/data/134/DEUSTATIS/old/Persons employed in wholesale trade.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="66">
   <si>
     <t>Persons employed in wholesale trade (measuring values and
 rates of change): Germany, months/quarters/half-years,
@@ -221,7 +221,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:05:47</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:01:04</t>
   </si>
 </sst>
 </file>
@@ -12277,10 +12277,10 @@
         <v>104.4</v>
       </c>
       <c r="LR9" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="LS9" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="LT9" t="n" s="10">
         <v>105.0</v>
@@ -12288,11 +12288,11 @@
       <c r="LU9" t="n" s="10">
         <v>105.0</v>
       </c>
-      <c r="LV9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW9" t="s" s="10">
-        <v>50</v>
+      <c r="LV9" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="LW9" t="n" s="10">
+        <v>106.0</v>
       </c>
       <c r="LX9" t="s" s="10">
         <v>50</v>
@@ -13293,10 +13293,10 @@
         <v>-1.0</v>
       </c>
       <c r="LR10" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="LS10" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="LT10" t="n" s="10">
         <v>0.6</v>
@@ -13304,11 +13304,11 @@
       <c r="LU10" t="n" s="10">
         <v>0.6</v>
       </c>
-      <c r="LV10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW10" t="s" s="10">
-        <v>50</v>
+      <c r="LV10" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="LW10" t="n" s="10">
+        <v>1.0</v>
       </c>
       <c r="LX10" t="s" s="10">
         <v>50</v>
@@ -14321,10 +14321,10 @@
         <v>56</v>
       </c>
       <c r="LV11" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW11" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX11" t="s" s="10">
         <v>50</v>
@@ -15337,10 +15337,10 @@
         <v>56</v>
       </c>
       <c r="LV12" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW12" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX12" t="s" s="10">
         <v>50</v>
@@ -16353,10 +16353,10 @@
         <v>56</v>
       </c>
       <c r="LV13" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW13" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX13" t="s" s="10">
         <v>50</v>
@@ -17369,10 +17369,10 @@
         <v>56</v>
       </c>
       <c r="LV14" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW14" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX14" t="s" s="10">
         <v>50</v>
@@ -18369,7 +18369,7 @@
         <v>97.2</v>
       </c>
       <c r="LO16" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="LP16" t="n" s="10">
         <v>99.0</v>
@@ -18389,11 +18389,11 @@
       <c r="LU16" t="n" s="10">
         <v>100.6</v>
       </c>
-      <c r="LV16" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW16" t="s" s="10">
-        <v>50</v>
+      <c r="LV16" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="LW16" t="n" s="10">
+        <v>100.2</v>
       </c>
       <c r="LX16" t="s" s="10">
         <v>50</v>
@@ -19385,7 +19385,7 @@
         <v>0.6</v>
       </c>
       <c r="LO17" t="n" s="10">
-        <v>2.0</v>
+        <v>1.9</v>
       </c>
       <c r="LP17" t="n" s="10">
         <v>2.1</v>
@@ -19405,11 +19405,11 @@
       <c r="LU17" t="n" s="10">
         <v>2.2</v>
       </c>
-      <c r="LV17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW17" t="s" s="10">
-        <v>50</v>
+      <c r="LV17" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="LW17" t="n" s="10">
+        <v>1.6</v>
       </c>
       <c r="LX17" t="s" s="10">
         <v>50</v>
@@ -20422,10 +20422,10 @@
         <v>56</v>
       </c>
       <c r="LV18" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW18" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX18" t="s" s="10">
         <v>50</v>
@@ -21438,10 +21438,10 @@
         <v>56</v>
       </c>
       <c r="LV19" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW19" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX19" t="s" s="10">
         <v>50</v>
@@ -22454,10 +22454,10 @@
         <v>56</v>
       </c>
       <c r="LV20" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW20" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX20" t="s" s="10">
         <v>50</v>
@@ -23470,10 +23470,10 @@
         <v>56</v>
       </c>
       <c r="LV21" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW21" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX21" t="s" s="10">
         <v>50</v>
@@ -24476,25 +24476,25 @@
         <v>110.8</v>
       </c>
       <c r="LQ23" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="LR23" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="LS23" t="n" s="10">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="LT23" t="n" s="10">
         <v>112.7</v>
       </c>
       <c r="LU23" t="n" s="10">
-        <v>112.8</v>
-      </c>
-      <c r="LV23" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW23" t="s" s="10">
-        <v>50</v>
+        <v>113.2</v>
+      </c>
+      <c r="LV23" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="LW23" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="LX23" t="s" s="10">
         <v>50</v>
@@ -25492,25 +25492,25 @@
         <v>-2.4</v>
       </c>
       <c r="LQ24" t="n" s="10">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="LR24" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="LS24" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="LT24" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="LU24" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="LV24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW24" t="s" s="10">
-        <v>50</v>
+        <v>0.7</v>
+      </c>
+      <c r="LV24" t="n" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="LW24" t="n" s="10">
+        <v>0.9</v>
       </c>
       <c r="LX24" t="s" s="10">
         <v>50</v>
@@ -26523,10 +26523,10 @@
         <v>56</v>
       </c>
       <c r="LV25" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW25" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX25" t="s" s="10">
         <v>50</v>
@@ -27539,10 +27539,10 @@
         <v>56</v>
       </c>
       <c r="LV26" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW26" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX26" t="s" s="10">
         <v>50</v>
@@ -28555,10 +28555,10 @@
         <v>56</v>
       </c>
       <c r="LV27" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW27" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX27" t="s" s="10">
         <v>50</v>
@@ -29571,10 +29571,10 @@
         <v>56</v>
       </c>
       <c r="LV28" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW28" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX28" t="s" s="10">
         <v>50</v>
@@ -30586,16 +30586,16 @@
         <v>103.0</v>
       </c>
       <c r="LT30" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="LU30" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="LV30" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW30" t="s" s="10">
-        <v>50</v>
+        <v>102.9</v>
+      </c>
+      <c r="LV30" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="LW30" t="n" s="10">
+        <v>104.1</v>
       </c>
       <c r="LX30" t="s" s="10">
         <v>50</v>
@@ -31602,16 +31602,16 @@
         <v>0.0</v>
       </c>
       <c r="LT31" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="LU31" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="LV31" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW31" t="s" s="10">
-        <v>50</v>
+        <v>0.4</v>
+      </c>
+      <c r="LV31" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="LW31" t="n" s="10">
+        <v>1.3</v>
       </c>
       <c r="LX31" t="s" s="10">
         <v>50</v>
@@ -32624,10 +32624,10 @@
         <v>56</v>
       </c>
       <c r="LV32" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW32" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX32" t="s" s="10">
         <v>50</v>
@@ -33640,10 +33640,10 @@
         <v>56</v>
       </c>
       <c r="LV33" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW33" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX33" t="s" s="10">
         <v>50</v>
@@ -34656,10 +34656,10 @@
         <v>56</v>
       </c>
       <c r="LV34" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW34" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX34" t="s" s="10">
         <v>50</v>
@@ -35672,10 +35672,10 @@
         <v>56</v>
       </c>
       <c r="LV35" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW35" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX35" t="s" s="10">
         <v>50</v>
@@ -36672,31 +36672,31 @@
         <v>102.7</v>
       </c>
       <c r="LO37" t="n" s="10">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="LP37" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="LQ37" t="n" s="10">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="LR37" t="n" s="10">
-        <v>101.2</v>
+        <v>101.0</v>
       </c>
       <c r="LS37" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="LT37" t="n" s="10">
+        <v>101.4</v>
+      </c>
+      <c r="LU37" t="n" s="10">
+        <v>101.3</v>
+      </c>
+      <c r="LV37" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="LU37" t="n" s="10">
-        <v>101.6</v>
-      </c>
-      <c r="LV37" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW37" t="s" s="10">
-        <v>50</v>
+      <c r="LW37" t="n" s="10">
+        <v>102.0</v>
       </c>
       <c r="LX37" t="s" s="10">
         <v>50</v>
@@ -37688,31 +37688,31 @@
         <v>0.0</v>
       </c>
       <c r="LO38" t="n" s="10">
-        <v>-0.6</v>
+        <v>-1.0</v>
       </c>
       <c r="LP38" t="n" s="10">
         <v>-5.7</v>
       </c>
       <c r="LQ38" t="n" s="10">
-        <v>-1.0</v>
+        <v>-1.2</v>
       </c>
       <c r="LR38" t="n" s="10">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="LS38" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="LT38" t="n" s="10">
         <v>-0.2</v>
       </c>
-      <c r="LT38" t="n" s="10">
-        <v>0.0</v>
-      </c>
       <c r="LU38" t="n" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="LV38" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW38" t="s" s="10">
-        <v>50</v>
+        <v>0.3</v>
+      </c>
+      <c r="LV38" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="LW38" t="n" s="10">
+        <v>-0.2</v>
       </c>
       <c r="LX38" t="s" s="10">
         <v>50</v>
@@ -38725,10 +38725,10 @@
         <v>56</v>
       </c>
       <c r="LV39" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW39" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX39" t="s" s="10">
         <v>50</v>
@@ -39741,10 +39741,10 @@
         <v>56</v>
       </c>
       <c r="LV40" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW40" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX40" t="s" s="10">
         <v>50</v>
@@ -40757,10 +40757,10 @@
         <v>56</v>
       </c>
       <c r="LV41" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW41" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX41" t="s" s="10">
         <v>50</v>
@@ -41773,10 +41773,10 @@
         <v>56</v>
       </c>
       <c r="LV42" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW42" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX42" t="s" s="10">
         <v>50</v>
@@ -42773,31 +42773,31 @@
         <v>109.7</v>
       </c>
       <c r="LO44" t="n" s="10">
-        <v>109.9</v>
+        <v>109.6</v>
       </c>
       <c r="LP44" t="n" s="10">
-        <v>108.8</v>
+        <v>108.6</v>
       </c>
       <c r="LQ44" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="LR44" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="LR44" t="n" s="10">
-        <v>110.2</v>
-      </c>
       <c r="LS44" t="n" s="10">
-        <v>110.6</v>
+        <v>110.4</v>
       </c>
       <c r="LT44" t="n" s="10">
-        <v>110.7</v>
+        <v>110.5</v>
       </c>
       <c r="LU44" t="n" s="10">
-        <v>110.4</v>
-      </c>
-      <c r="LV44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW44" t="s" s="10">
-        <v>50</v>
+        <v>110.3</v>
+      </c>
+      <c r="LV44" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="LW44" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="LX44" t="s" s="10">
         <v>50</v>
@@ -43789,31 +43789,31 @@
         <v>-1.2</v>
       </c>
       <c r="LO45" t="n" s="10">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="LP45" t="n" s="10">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="LQ45" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="LR45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="LS45" t="n" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="LT45" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="LU45" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="LU45" t="n" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="LV45" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW45" t="s" s="10">
-        <v>50</v>
+      <c r="LV45" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="LW45" t="n" s="10">
+        <v>1.3</v>
       </c>
       <c r="LX45" t="s" s="10">
         <v>50</v>
@@ -44826,10 +44826,10 @@
         <v>56</v>
       </c>
       <c r="LV46" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW46" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX46" t="s" s="10">
         <v>50</v>
@@ -45842,10 +45842,10 @@
         <v>56</v>
       </c>
       <c r="LV47" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW47" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX47" t="s" s="10">
         <v>50</v>
@@ -46858,10 +46858,10 @@
         <v>56</v>
       </c>
       <c r="LV48" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW48" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX48" t="s" s="10">
         <v>50</v>
@@ -47874,10 +47874,10 @@
         <v>56</v>
       </c>
       <c r="LV49" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW49" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX49" t="s" s="10">
         <v>50</v>
@@ -48877,7 +48877,7 @@
         <v>103.4</v>
       </c>
       <c r="LP51" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="LQ51" t="n" s="10">
         <v>103.4</v>
@@ -48889,16 +48889,16 @@
         <v>104.0</v>
       </c>
       <c r="LT51" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="LU51" t="n" s="10">
-        <v>104.3</v>
-      </c>
-      <c r="LV51" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW51" t="s" s="10">
-        <v>50</v>
+        <v>104.4</v>
+      </c>
+      <c r="LV51" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="LW51" t="n" s="10">
+        <v>105.6</v>
       </c>
       <c r="LX51" t="s" s="10">
         <v>50</v>
@@ -49893,7 +49893,7 @@
         <v>-1.1</v>
       </c>
       <c r="LP52" t="n" s="10">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="LQ52" t="n" s="10">
         <v>-1.2</v>
@@ -49905,16 +49905,16 @@
         <v>-0.4</v>
       </c>
       <c r="LT52" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="LU52" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="LV52" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW52" t="s" s="10">
-        <v>50</v>
+        <v>0.0</v>
+      </c>
+      <c r="LV52" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="LW52" t="n" s="10">
+        <v>0.3</v>
       </c>
       <c r="LX52" t="s" s="10">
         <v>50</v>
@@ -50927,10 +50927,10 @@
         <v>56</v>
       </c>
       <c r="LV53" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW53" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX53" t="s" s="10">
         <v>50</v>
@@ -51943,10 +51943,10 @@
         <v>56</v>
       </c>
       <c r="LV54" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW54" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX54" t="s" s="10">
         <v>50</v>
@@ -52959,10 +52959,10 @@
         <v>56</v>
       </c>
       <c r="LV55" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW55" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX55" t="s" s="10">
         <v>50</v>
@@ -53975,10 +53975,10 @@
         <v>56</v>
       </c>
       <c r="LV56" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW56" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX56" t="s" s="10">
         <v>50</v>
@@ -54074,7 +54074,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:05:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:01:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>